--- a/biology/Botanique/Botrydiales/Botrydiales.xlsx
+++ b/biology/Botanique/Botrydiales/Botrydiales.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Botrydiales sont un ordre d’algues de la classe des Xanthophyceae.
 </t>
@@ -511,9 +523,11 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'ordre des Botrydiales a été créé en 1922 par le botaniste et mycologue américain John Henry Schaffner (1866–1939)[1],[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'ordre des Botrydiales a été créé en 1922 par le botaniste et mycologue américain John Henry Schaffner (1866–1939),.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Liste des familles</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Selon AlgaeBase                                           (16 mars 2022)[1] 
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon AlgaeBase                                           (16 mars 2022) 
 Botrydiaceae Rabenhorst, 1863</t>
         </is>
       </c>
@@ -573,7 +589,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>(en) John H. Schaffner, « The classification of plants. XII. », The Ohio Journal of Science, Columbus, vol. 22,‎ 1922, p. 129–139 (ISSN 0030-0950 et 2471-9390, OCLC 1761139, lire en ligne)</t>
         </is>
